--- a/Extracted_Odds_With_Results.xlsx
+++ b/Extracted_Odds_With_Results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,22 +500,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E2" t="n">
-        <v>7.13</v>
+        <v>7.08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2339901477832513</v>
+        <v>0.2328431372549019</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1332398316970547</v>
+        <v>0.134180790960452</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -535,22 +535,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="D3" t="n">
-        <v>3.57</v>
+        <v>3.63</v>
       </c>
       <c r="E3" t="n">
-        <v>5.49</v>
+        <v>5.44</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5491329479768786</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2661064425770308</v>
+        <v>0.2617079889807162</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1730418943533698</v>
+        <v>0.1746323529411765</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -564,34 +564,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2.23</v>
+        <v>4.91</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="E4" t="n">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4260089686098655</v>
+        <v>0.1934826883910387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2745664739884393</v>
+        <v>0.2698863636363636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3467153284671532</v>
+        <v>0.5219780219780219</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -599,63 +599,63 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="D5" t="n">
-        <v>3.94</v>
+        <v>5.43</v>
       </c>
       <c r="E5" t="n">
-        <v>4.38</v>
+        <v>10.67</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5937499999999999</v>
+        <v>0.7196969696969696</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2411167512690355</v>
+        <v>0.1749539594843462</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2168949771689498</v>
+        <v>0.08903467666354264</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6</v>
+        <v>4.47</v>
       </c>
       <c r="D6" t="n">
-        <v>4.3</v>
+        <v>3.77</v>
       </c>
       <c r="E6" t="n">
-        <v>4.98</v>
+        <v>1.82</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5937499999999999</v>
+        <v>0.2125279642058165</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.2519893899204244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1907630522088353</v>
+        <v>0.5219780219780219</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -669,98 +669,98 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="D7" t="n">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="E7" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2546916890080429</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.19</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="D8" t="n">
-        <v>6.98</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>14.34</v>
+        <v>7.64</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8050847457627118</v>
+        <v>0.6462585034013605</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1361031518624642</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06624825662482565</v>
+        <v>0.1243455497382199</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5.24</v>
+        <v>2.26</v>
       </c>
       <c r="D9" t="n">
-        <v>4.03</v>
+        <v>3.45</v>
       </c>
       <c r="E9" t="n">
-        <v>1.62</v>
+        <v>2.89</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1812977099236641</v>
+        <v>0.420353982300885</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2357320099255583</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5864197530864197</v>
+        <v>0.328719723183391</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,104 +774,104 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="D10" t="n">
-        <v>3.89</v>
+        <v>4.04</v>
       </c>
       <c r="E10" t="n">
-        <v>7.17</v>
+        <v>4.53</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6291390728476821</v>
+        <v>0.5828220858895705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2442159383033419</v>
+        <v>0.2351485148514851</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1324965132496513</v>
+        <v>0.2097130242825607</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>6.54</v>
+        <v>2.26</v>
       </c>
       <c r="D11" t="n">
-        <v>5.29</v>
+        <v>3.63</v>
       </c>
       <c r="E11" t="n">
-        <v>1.32</v>
+        <v>3.15</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1452599388379205</v>
+        <v>0.420353982300885</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1795841209829868</v>
+        <v>0.2617079889807162</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7196969696969696</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="D12" t="n">
-        <v>4.83</v>
+        <v>4.46</v>
       </c>
       <c r="E12" t="n">
-        <v>10.11</v>
+        <v>5.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.708955223880597</v>
+        <v>0.6012658227848101</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1966873706004141</v>
+        <v>0.2130044843049327</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09396636993076163</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -879,63 +879,63 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="D13" t="n">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="E13" t="n">
-        <v>5.32</v>
+        <v>3.89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4822335025380711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2609890109890109</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.2442159383033419</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>1.33</v>
+        <v>3.39</v>
       </c>
       <c r="D14" t="n">
-        <v>4.84</v>
+        <v>3.52</v>
       </c>
       <c r="E14" t="n">
-        <v>7.09</v>
+        <v>2.18</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.2802359882005899</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1962809917355372</v>
+        <v>0.2698863636363636</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1339915373765867</v>
+        <v>0.4357798165137614</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -949,28 +949,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>3.17</v>
+        <v>3.99</v>
       </c>
       <c r="D15" t="n">
-        <v>3.61</v>
+        <v>3.1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2996845425867508</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4947916666666667</v>
+        <v>0.4398148148148148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -984,28 +984,28 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3.92</v>
+        <v>1.62</v>
       </c>
       <c r="D16" t="n">
-        <v>3.35</v>
+        <v>4.44</v>
       </c>
       <c r="E16" t="n">
-        <v>1.99</v>
+        <v>5.1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2423469387755102</v>
+        <v>0.5864197530864197</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.2139639639639639</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4773869346733668</v>
+        <v>0.1862745098039216</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1019,107 +1019,1682 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1.23</v>
+        <v>3.85</v>
       </c>
       <c r="D17" t="n">
-        <v>6.44</v>
+        <v>3.38</v>
       </c>
       <c r="E17" t="n">
-        <v>11.53</v>
+        <v>2.08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7723577235772358</v>
+        <v>0.2467532467532467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1475155279503105</v>
+        <v>0.2810650887573964</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0823937554206418</v>
+        <v>0.4567307692307692</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1.37</v>
+        <v>3.67</v>
       </c>
       <c r="D18" t="n">
-        <v>4.93</v>
+        <v>3.61</v>
       </c>
       <c r="E18" t="n">
-        <v>7.83</v>
+        <v>2.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6934306569343065</v>
+        <v>0.2588555858310627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1926977687626775</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1213282247765006</v>
+        <v>0.472636815920398</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6462585034013605</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2149321266968326</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1287262872628726</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6506849315068493</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2134831460674157</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1196473551637279</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2987421383647799</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.2698863636363636</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3242320819112628</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3064516129032258</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3544776119402985</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8050847457627118</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06105398457583547</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1795841209829868</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2334152334152334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3467153284671532</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3044871794871795</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3429602888086642</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5491329479768786</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2698863636363636</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1655052264808362</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1567656765676568</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.09313725490196079</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.290519877675841</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3253424657534246</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3094462540716613</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3531598513011152</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6129032258064515</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2423469387755102</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1347517730496454</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1475155279503105</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1672535211267606</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2968749999999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3467153284671532</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3518518518518518</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4523809523809523</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2870090634441088</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2435897435897436</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.286144578313253</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3925619834710743</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3877551020408163</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2932098765432098</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3909465020576131</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3035143769968051</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.2887537993920972</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6985294117647058</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1930894308943089</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.09039010466222645</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5523255813953488</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2588555858310627</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1684397163120567</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2691218130311614</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3035143769968051</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3104575163398693</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3667953667953668</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6737588652482269</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2106430155210643</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.1177199504337051</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4398148148148148</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.2567567567567567</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5654761904761905</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2553763440860215</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1649305555555556</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7037037037037036</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1903807615230461</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1323119777158774</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2887537993920972</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2486910994764398</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.4460093896713615</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2852852852852852</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.2553763440860215</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.096056622851365</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1830443159922928</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.708955223880597</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3356890459363958</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2896341463414634</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3667953667953668</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.4502369668246445</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2745664739884393</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.187007874015748</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2480417754569191</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5523255813953488</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2417302798982188</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2769679300291545</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.4656862745098039</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.143288084464555</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.08140531276778062</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.4797979797979798</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2480417754569191</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.286144578313253</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.7251908396946565</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1759259259259259</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1258278145695364</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2617079889807162</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2540106951871657</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.4656862745098039</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.4260089686098655</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2835820895522388</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.2827380952380952</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2289156626506024</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.1789077212806026</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
         <v>9</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6884057971014493</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1866404715127701</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2087912087912088</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2533333333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
+      <c r="C59" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2021276595744681</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2467532467532467</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5337078651685393</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2932098765432098</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.2802359882005899</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.407725321888412</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1892430278884462</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5864197530864197</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.182341650671785</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9</v>
+      </c>
+      <c r="B63" t="n">
+        <v>16</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6934306569343065</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.183752417794971</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.1194968553459119</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.420353982300885</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.2676056338028169</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.2978056426332288</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +2708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,22 +2781,22 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
       <c r="D2" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2683615819209039</v>
+        <v>0.2624309392265193</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2810650887573964</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.4481132075471698</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1241,22 +2816,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="E3" t="n">
-        <v>3.61</v>
+        <v>3.71</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4398148148148148</v>
+        <v>0.4357798165137614</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2968749999999999</v>
+        <v>0.2932098765432098</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2560646900269541</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1270,104 +2845,104 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5</v>
+        <v>1.83</v>
       </c>
       <c r="D4" t="n">
-        <v>7.51</v>
+        <v>3.61</v>
       </c>
       <c r="E4" t="n">
-        <v>1.12</v>
+        <v>4.74</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07037037037037036</v>
+        <v>0.5191256830601092</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1264980026631158</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8482142857142856</v>
+        <v>0.20042194092827</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>6.61</v>
+        <v>4.16</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56</v>
+        <v>3.57</v>
       </c>
       <c r="E5" t="n">
-        <v>1.29</v>
+        <v>1.93</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1437216338880484</v>
+        <v>0.2283653846153846</v>
       </c>
       <c r="G5" t="n">
-        <v>0.170863309352518</v>
+        <v>0.2661064425770308</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7364341085271318</v>
+        <v>0.4922279792746114</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.54</v>
+        <v>1.47</v>
       </c>
       <c r="D6" t="n">
-        <v>3.21</v>
+        <v>4.57</v>
       </c>
       <c r="E6" t="n">
-        <v>2.86</v>
+        <v>7.26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3740157480314961</v>
+        <v>0.6462585034013605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2959501557632399</v>
+        <v>0.2078774617067833</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3321678321678322</v>
+        <v>0.1308539944903581</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1375,34 +2950,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.96</v>
+        <v>3.59</v>
       </c>
       <c r="D7" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="E7" t="n">
-        <v>4.31</v>
+        <v>2.22</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4846938775510204</v>
+        <v>0.2646239554317549</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2978056426332288</v>
+        <v>0.2914110429447853</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2204176334106729</v>
+        <v>0.4279279279279279</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1410,28 +2985,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>1.93</v>
+        <v>3.78</v>
       </c>
       <c r="D8" t="n">
-        <v>3.37</v>
+        <v>3.48</v>
       </c>
       <c r="E8" t="n">
-        <v>4.12</v>
+        <v>2.07</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4922279792746114</v>
+        <v>0.2513227513227513</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2818991097922848</v>
+        <v>0.2729885057471264</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2305825242718446</v>
+        <v>0.4589371980676329</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1445,69 +3020,69 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.63</v>
+        <v>14.26</v>
       </c>
       <c r="D9" t="n">
-        <v>3.72</v>
+        <v>8.4</v>
       </c>
       <c r="E9" t="n">
-        <v>5.8</v>
+        <v>1.12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5828220858895705</v>
+        <v>0.06661991584852735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2553763440860215</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1637931034482759</v>
+        <v>0.8482142857142856</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
       <c r="C10" t="n">
-        <v>1.3</v>
+        <v>6.67</v>
       </c>
       <c r="D10" t="n">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="E10" t="n">
-        <v>7.45</v>
+        <v>1.36</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.1424287856071964</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.185546875</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1275167785234899</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1515,34 +3090,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>2.73</v>
+        <v>1.47</v>
       </c>
       <c r="D11" t="n">
-        <v>3.24</v>
+        <v>4.53</v>
       </c>
       <c r="E11" t="n">
-        <v>2.34</v>
+        <v>7.08</v>
       </c>
       <c r="F11" t="n">
-        <v>0.347985347985348</v>
+        <v>0.6462585034013605</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2932098765432098</v>
+        <v>0.2097130242825607</v>
       </c>
       <c r="H11" t="n">
-        <v>0.405982905982906</v>
+        <v>0.134180790960452</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1550,34 +3125,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="D12" t="n">
-        <v>2.77</v>
+        <v>3.19</v>
       </c>
       <c r="E12" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3074433656957929</v>
+        <v>0.3231292517006802</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3429602888086642</v>
+        <v>0.2978056426332288</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3492647058823529</v>
+        <v>0.3625954198473282</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1585,63 +3160,63 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>2.38</v>
+        <v>5.2</v>
       </c>
       <c r="D13" t="n">
-        <v>2.81</v>
+        <v>1.73</v>
       </c>
       <c r="E13" t="n">
-        <v>3.57</v>
+        <v>3.78</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3991596638655462</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3380782918149466</v>
+        <v>0.5491329479768786</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2661064425770308</v>
+        <v>0.2513227513227513</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="D14" t="n">
-        <v>3.98</v>
+        <v>3.73</v>
       </c>
       <c r="E14" t="n">
-        <v>4.47</v>
+        <v>4.76</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5974842767295597</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2386934673366834</v>
+        <v>0.2546916890080429</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2125279642058165</v>
+        <v>0.1995798319327731</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,34 +3230,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="D15" t="n">
-        <v>3.3</v>
+        <v>4.78</v>
       </c>
       <c r="E15" t="n">
-        <v>4.95</v>
+        <v>8.01</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5219780219780219</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.198744769874477</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.118601747815231</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1690,34 +3265,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.32</v>
+        <v>2.56</v>
       </c>
       <c r="D16" t="n">
-        <v>5.41</v>
+        <v>3.29</v>
       </c>
       <c r="E16" t="n">
-        <v>9.02</v>
+        <v>2.93</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7196969696969696</v>
+        <v>0.37109375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1756007393715342</v>
+        <v>0.2887537993920972</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1053215077605321</v>
+        <v>0.3242320819112628</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1725,69 +3300,69 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>6.65</v>
+        <v>1.98</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>3.26</v>
       </c>
       <c r="E17" t="n">
-        <v>1.46</v>
+        <v>4.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4797979797979798</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.2914110429447853</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6506849315068493</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1.34</v>
+        <v>2.31</v>
       </c>
       <c r="D18" t="n">
-        <v>5.14</v>
+        <v>3.4</v>
       </c>
       <c r="E18" t="n">
-        <v>9.1</v>
+        <v>3.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.708955223880597</v>
+        <v>0.4112554112554112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1848249027237354</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1043956043956044</v>
+        <v>0.2968749999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1795,36 +3370,1611 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1782363977485929</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4481132075471698</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2950310559006211</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2417302798982188</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6985294117647058</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1942740286298568</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1057906458797327</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3830645161290323</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3253424657534246</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2785923753665689</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4797979797979798</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2480417754569191</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6168831168831168</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2398989898989899</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1361031518624642</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2553763440860215</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.185546875</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6834532374100719</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1903807615230461</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1124260355029586</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>17</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1211734693877551</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6506849315068493</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1995798319327731</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2810650887573964</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.510752688172043</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7196969696969696</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1795841209829868</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1308539944903581</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3310104529616724</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4025423728813559</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4241071428571428</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2870090634441088</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.2810650887573964</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3531598513011152</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3054662379421222</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2328431372549019</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5307262569832402</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2683615819209039</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1844660194174757</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2753623188405797</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.376984126984127</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3035143769968051</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3345070422535211</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.389344262295082</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3368794326241135</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2560646900269541</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.572289156626506</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2519893899204244</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1626712328767123</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2224824355971897</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2968749999999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4634146341463415</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5397727272727273</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2617079889807162</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.181992337164751</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" t="n">
+        <v>17</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6012658227848101</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2567567567567567</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.1424287856071964</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7723577235772358</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1615646258503401</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.09039010466222645</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5828220858895705</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2328431372549019</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.2078774617067833</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5191256830601092</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2818991097922848</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.187007874015748</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6884057971014493</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1785714285714285</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.1168511685116851</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2950310559006211</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2745664739884393</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6375838926174496</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2168949771689498</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1321279554937413</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.4523809523809523</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2722063037249283</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2609890109890109</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1714801444043321</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2351485148514851</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.708955223880597</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1021505376344086</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1413690476190476</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2047413793103448</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.6375838926174496</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5307262569832402</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2513227513227513</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.2486910994764398</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5828220858895705</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.2411167512690355</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.194672131147541</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.753968253968254</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1505546751188589</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.08071367884451996</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="n">
+        <v>17</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6209150326797386</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1457055214723926</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.4656862745098039</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2676056338028169</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2540106951871657</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
         <v>9</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.708955223880597</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1792452830188679</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.101063829787234</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="n">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3625954198473282</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3006329113924051</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="C59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3518518518518518</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2950310559006211</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.3380782918149466</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.2624309392265193</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5191256830601092</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>9</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4502369668246445</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2737752161383285</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2595628415300546</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" t="n">
+        <v>14</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6884057971014493</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.187007874015748</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.1096997690531178</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>9</v>
+      </c>
+      <c r="B63" t="n">
+        <v>17</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6985294117647058</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1809523809523809</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.1072234762979684</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.2101769911504425</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.1475155279503105</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1839,7 +4989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,22 +5062,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D2" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="E2" t="n">
-        <v>5.57</v>
+        <v>5.72</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6209150326797386</v>
+        <v>0.6129032258064515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2144469525959368</v>
+        <v>0.2097130242825607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.170556552962298</v>
+        <v>0.1660839160839161</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1941,28 +5091,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.81</v>
+        <v>3.19</v>
       </c>
       <c r="D3" t="n">
-        <v>3.67</v>
+        <v>3.17</v>
       </c>
       <c r="E3" t="n">
-        <v>3.62</v>
+        <v>2.44</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5248618784530387</v>
+        <v>0.2978056426332288</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2588555858310627</v>
+        <v>0.2996845425867508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2624309392265193</v>
+        <v>0.389344262295082</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1976,28 +5126,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>2.21</v>
+        <v>2.53</v>
       </c>
       <c r="D4" t="n">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="E4" t="n">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4298642533936651</v>
+        <v>0.3754940711462451</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2785923753665689</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2978056426332288</v>
+        <v>0.3187919463087248</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -2011,69 +5161,69 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>3.53</v>
+        <v>4.15</v>
       </c>
       <c r="D5" t="n">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="E5" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2691218130311614</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2698863636363636</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4611650485436893</v>
+        <v>0.4702970297029703</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>3.31</v>
+        <v>2.21</v>
       </c>
       <c r="D6" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="E6" t="n">
-        <v>2.04</v>
+        <v>3.67</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2870090634441088</v>
+        <v>0.4298642533936651</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2802359882005899</v>
+        <v>0.2950310559006211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4656862745098039</v>
+        <v>0.2588555858310627</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2081,28 +5231,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="D7" t="n">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="E7" t="n">
-        <v>4.41</v>
+        <v>5.01</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4896907216494845</v>
+        <v>0.5367231638418078</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2581521739130435</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2154195011337868</v>
+        <v>0.1896207584830339</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2116,28 +5266,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="D8" t="n">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="E8" t="n">
-        <v>2.87</v>
+        <v>3.63</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4589371980676329</v>
+        <v>0.5053191489361702</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2653631284916201</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3310104529616724</v>
+        <v>0.2617079889807162</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2151,34 +5301,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2.47</v>
+        <v>3.23</v>
       </c>
       <c r="D9" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="E9" t="n">
-        <v>3.11</v>
+        <v>1.95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.2467532467532467</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3054662379421222</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2186,37 +5336,1612 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4973821989528796</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2513227513227513</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.236318407960199</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2653631284916201</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2827380952380952</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4357798165137614</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4008438818565401</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3177257525083612</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2653631284916201</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4460093896713615</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2978056426332288</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2448453608247423</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2294685990338164</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.2802359882005899</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4973821989528796</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2978056426332288</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4773869346733668</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2668539325842696</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2461139896373057</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2134831460674157</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5080213903743315</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08282476024411507</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1517571884984026</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3104575163398693</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3264604810996563</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3625954198473282</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4439252336448598</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3177257525083612</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2300242130750605</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2661064425770308</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4567307692307692</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3187919463087248</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3264604810996563</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6089743589743589</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2300242130750605</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1454823889739663</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1848249027237354</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2691218130311614</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5337078651685393</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2278177458033573</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4611650485436893</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6834532374100719</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1983298538622129</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1067415730337079</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2745664739884393</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2785923753665689</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.472636815920398</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5307262569832402</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2560646900269541</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.198744769874477</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6168831168831168</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2322738386308068</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1355206847360913</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3991596638655462</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2996845425867508</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2818991097922848</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3380782918149466</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3231292517006802</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3231292517006802</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.290519877675841</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1942740286298568</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2914110429447853</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.2106430155210643</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3264604810996563</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3356890459363958</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5337078651685393</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2794117647058824</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1702508960573477</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6291390728476821</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2214452214452214</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1330532212885154</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.170863309352518</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2745664739884393</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5367231638418078</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2609890109890109</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4502369668246445</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2617079889807162</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3198653198653199</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2827380952380952</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2668539325842696</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2154195011337868</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5080213903743315</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1756007393715342</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2486910994764398</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5654761904761905</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="n">
+        <v>15</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5397727272727273</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2486910994764398</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.1970954356846473</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.811965811965812</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1207115628970775</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05208333333333334</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3861788617886179</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2996845425867508</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.2996845425867508</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.753968253968254</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1621160409556314</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.1066217732884399</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.3156146179401993</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2646239554317549</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.3861788617886179</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2987421383647799</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3064516129032258</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>8</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3467153284671532</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2870090634441088</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3505535055350553</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.2896341463414634</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2624309392265193</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2769679300291545</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4922279792746114</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2193995381062356</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1486697965571205</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3639846743295019</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2870090634441088</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2769679300291545</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2540106951871657</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4523809523809523</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2448453608247423</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.2357320099255583</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="n">
+        <v>18</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3074433656957929</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2932098765432098</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3861788617886179</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
